--- a/Excel-XLSX/UN-OMN.xlsx
+++ b/Excel-XLSX/UN-OMN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>R0pl6k</t>
+    <t>s4S87I</t>
   </si>
   <si>
     <t>2001</t>
@@ -117,7 +117,229 @@
     <t>16</t>
   </si>
   <si>
-    <t>null</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Rep. of)</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>26</t>
   </si>
   <si>
     <t>147</t>
@@ -129,49 +351,70 @@
     <t>PAK</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>IRQ</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>SUD</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
   </si>
   <si>
     <t>2005</t>
@@ -186,243 +429,18 @@
     <t>SYR</t>
   </si>
   <si>
-    <t>12</t>
+    <t>48</t>
   </si>
   <si>
     <t>2006</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>SUD</t>
-  </si>
-  <si>
-    <t>SDN</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>255</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>309</t>
-  </si>
-  <si>
-    <t>354</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>387</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>298</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>295</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
     <t>49</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Iran (Islamic Rep. of)</t>
-  </si>
-  <si>
-    <t>IRN</t>
-  </si>
-  <si>
     <t>50</t>
   </si>
   <si>
-    <t>303</t>
-  </si>
-  <si>
     <t>51</t>
   </si>
   <si>
@@ -432,18 +450,9 @@
     <t>53</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
     <t>54</t>
   </si>
   <si>
-    <t>282</t>
-  </si>
-  <si>
-    <t>459</t>
-  </si>
-  <si>
     <t>55</t>
   </si>
   <si>
@@ -456,9 +465,6 @@
     <t>58</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>59</t>
   </si>
   <si>
@@ -466,6 +472,18 @@
   </si>
   <si>
     <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
   </si>
 </sst>
 </file>
@@ -850,7 +868,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V62"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -990,8 +1008,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>31</v>
+      <c r="V2" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -1008,19 +1026,19 @@
         <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
@@ -1038,7 +1056,7 @@
         <v>31</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>31</v>
@@ -1058,8 +1076,8 @@
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>31</v>
+      <c r="V3" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -1073,10 +1091,10 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>25</v>
@@ -1126,8 +1144,8 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>31</v>
+      <c r="V4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -1141,22 +1159,22 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>28</v>
@@ -1174,7 +1192,7 @@
         <v>31</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>31</v>
@@ -1194,8 +1212,8 @@
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>31</v>
+      <c r="V5" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -1209,41 +1227,41 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="P6" s="2" t="s">
         <v>31</v>
       </c>
@@ -1262,8 +1280,8 @@
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>31</v>
+      <c r="V6" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -1283,16 +1301,16 @@
         <v>45</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>28</v>
@@ -1310,7 +1328,7 @@
         <v>31</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>31</v>
@@ -1330,8 +1348,8 @@
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>31</v>
+      <c r="V7" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -1348,19 +1366,19 @@
         <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -1378,7 +1396,7 @@
         <v>31</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>31</v>
@@ -1398,8 +1416,8 @@
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="2" t="s">
-        <v>31</v>
+      <c r="V8" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -1413,22 +1431,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>28</v>
@@ -1443,10 +1461,10 @@
         <v>30</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>31</v>
@@ -1466,8 +1484,8 @@
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="2" t="s">
-        <v>31</v>
+      <c r="V9" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -1481,22 +1499,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>28</v>
@@ -1511,10 +1529,10 @@
         <v>30</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>31</v>
@@ -1534,8 +1552,8 @@
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="2" t="s">
-        <v>31</v>
+      <c r="V10" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -1549,22 +1567,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>28</v>
@@ -1582,7 +1600,7 @@
         <v>31</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>31</v>
@@ -1602,8 +1620,8 @@
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="2" t="s">
-        <v>31</v>
+      <c r="V11" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -1617,22 +1635,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>28</v>
@@ -1647,10 +1665,10 @@
         <v>30</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>31</v>
@@ -1670,8 +1688,8 @@
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="2" t="s">
-        <v>31</v>
+      <c r="V12" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -1685,22 +1703,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>28</v>
@@ -1715,10 +1733,10 @@
         <v>30</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>31</v>
@@ -1738,8 +1756,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="2" t="s">
-        <v>31</v>
+      <c r="V13" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -1753,22 +1771,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>28</v>
@@ -1783,13 +1801,13 @@
         <v>30</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>31</v>
@@ -1806,8 +1824,8 @@
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="2" t="s">
-        <v>31</v>
+      <c r="V14" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -1821,22 +1839,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>28</v>
@@ -1851,13 +1869,13 @@
         <v>30</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>31</v>
@@ -1874,8 +1892,8 @@
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="2" t="s">
-        <v>31</v>
+      <c r="V15" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -1889,22 +1907,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>28</v>
@@ -1919,13 +1937,13 @@
         <v>30</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>31</v>
@@ -1942,8 +1960,8 @@
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="2" t="s">
-        <v>31</v>
+      <c r="V16" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -1960,19 +1978,19 @@
         <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>28</v>
@@ -1987,13 +2005,13 @@
         <v>30</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>31</v>
@@ -2010,8 +2028,8 @@
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="2" t="s">
-        <v>31</v>
+      <c r="V17" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -2025,22 +2043,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>28</v>
@@ -2055,13 +2073,13 @@
         <v>30</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>31</v>
@@ -2078,8 +2096,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="2" t="s">
-        <v>31</v>
+      <c r="V18" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -2093,22 +2111,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>28</v>
@@ -2123,10 +2141,10 @@
         <v>30</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>31</v>
@@ -2146,8 +2164,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="2" t="s">
-        <v>31</v>
+      <c r="V19" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -2161,22 +2179,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>28</v>
@@ -2191,10 +2209,10 @@
         <v>30</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>31</v>
@@ -2214,8 +2232,8 @@
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="2" t="s">
-        <v>31</v>
+      <c r="V20" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21">
@@ -2229,22 +2247,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>28</v>
@@ -2259,10 +2277,10 @@
         <v>30</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>31</v>
@@ -2282,8 +2300,8 @@
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="2" t="s">
-        <v>31</v>
+      <c r="V21" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -2297,22 +2315,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>28</v>
@@ -2327,10 +2345,10 @@
         <v>30</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>31</v>
@@ -2350,8 +2368,8 @@
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="2" t="s">
-        <v>31</v>
+      <c r="V22" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -2365,22 +2383,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>28</v>
@@ -2395,13 +2413,13 @@
         <v>30</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>31</v>
@@ -2418,8 +2436,8 @@
       <c r="U23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="2" t="s">
-        <v>31</v>
+      <c r="V23" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -2433,22 +2451,22 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>28</v>
@@ -2463,10 +2481,10 @@
         <v>30</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>31</v>
@@ -2486,8 +2504,8 @@
       <c r="U24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V24" s="2" t="s">
-        <v>31</v>
+      <c r="V24" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -2501,22 +2519,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>28</v>
@@ -2531,10 +2549,10 @@
         <v>30</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>31</v>
@@ -2569,22 +2587,22 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>28</v>
@@ -2599,13 +2617,13 @@
         <v>30</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>31</v>
@@ -2637,22 +2655,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>28</v>
@@ -2670,7 +2688,7 @@
         <v>31</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>31</v>
@@ -2690,8 +2708,8 @@
       <c r="U27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V27" s="2" t="s">
-        <v>31</v>
+      <c r="V27" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -2705,22 +2723,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>28</v>
@@ -2735,10 +2753,10 @@
         <v>30</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>31</v>
@@ -2758,8 +2776,8 @@
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="2" t="s">
-        <v>31</v>
+      <c r="V28" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -2773,22 +2791,22 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>28</v>
@@ -2803,13 +2821,13 @@
         <v>30</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>31</v>
@@ -2826,8 +2844,8 @@
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="2" t="s">
-        <v>31</v>
+      <c r="V29" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -2841,22 +2859,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>28</v>
@@ -2874,7 +2892,7 @@
         <v>31</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>31</v>
@@ -2894,8 +2912,8 @@
       <c r="U30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V30" s="2" t="s">
-        <v>31</v>
+      <c r="V30" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -2909,22 +2927,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>28</v>
@@ -2939,10 +2957,10 @@
         <v>30</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>31</v>
@@ -2962,8 +2980,8 @@
       <c r="U31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V31" s="2" t="s">
-        <v>31</v>
+      <c r="V31" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32">
@@ -2977,22 +2995,22 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>28</v>
@@ -3007,13 +3025,13 @@
         <v>30</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>31</v>
@@ -3030,8 +3048,8 @@
       <c r="U32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V32" s="2" t="s">
-        <v>31</v>
+      <c r="V32" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33">
@@ -3045,22 +3063,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>28</v>
@@ -3075,10 +3093,10 @@
         <v>30</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>31</v>
@@ -3098,8 +3116,8 @@
       <c r="U33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="2" t="s">
-        <v>31</v>
+      <c r="V33" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -3113,22 +3131,22 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>28</v>
@@ -3143,10 +3161,10 @@
         <v>30</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>31</v>
@@ -3166,8 +3184,8 @@
       <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="2" t="s">
-        <v>31</v>
+      <c r="V34" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -3181,22 +3199,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>28</v>
@@ -3211,13 +3229,13 @@
         <v>30</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="Q35" s="2" t="s">
         <v>31</v>
@@ -3249,22 +3267,22 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>28</v>
@@ -3279,10 +3297,10 @@
         <v>30</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>31</v>
@@ -3317,22 +3335,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>28</v>
@@ -3347,10 +3365,10 @@
         <v>30</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>31</v>
@@ -3370,8 +3388,8 @@
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="2" t="s">
-        <v>31</v>
+      <c r="V37" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38">
@@ -3385,22 +3403,22 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>28</v>
@@ -3415,10 +3433,10 @@
         <v>30</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>31</v>
@@ -3438,8 +3456,8 @@
       <c r="U38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>31</v>
+      <c r="V38" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39">
@@ -3453,22 +3471,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>28</v>
@@ -3486,7 +3504,7 @@
         <v>31</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>31</v>
@@ -3506,8 +3524,8 @@
       <c r="U39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="2" t="s">
-        <v>31</v>
+      <c r="V39" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40">
@@ -3521,22 +3539,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>28</v>
@@ -3551,10 +3569,10 @@
         <v>30</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>31</v>
@@ -3574,8 +3592,8 @@
       <c r="U40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V40" s="2" t="s">
-        <v>31</v>
+      <c r="V40" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41">
@@ -3589,22 +3607,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>28</v>
@@ -3619,10 +3637,10 @@
         <v>30</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>31</v>
@@ -3642,8 +3660,8 @@
       <c r="U41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V41" s="2" t="s">
-        <v>31</v>
+      <c r="V41" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42">
@@ -3657,22 +3675,22 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>28</v>
@@ -3690,7 +3708,7 @@
         <v>31</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>31</v>
@@ -3710,8 +3728,8 @@
       <c r="U42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V42" s="2" t="s">
-        <v>31</v>
+      <c r="V42" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43">
@@ -3725,22 +3743,22 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>28</v>
@@ -3755,10 +3773,10 @@
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P43" s="2" t="s">
         <v>31</v>
@@ -3778,8 +3796,8 @@
       <c r="U43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V43" s="2" t="s">
-        <v>31</v>
+      <c r="V43" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="44">
@@ -3793,22 +3811,22 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>28</v>
@@ -3823,10 +3841,10 @@
         <v>30</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>31</v>
@@ -3846,8 +3864,8 @@
       <c r="U44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V44" s="2" t="s">
-        <v>31</v>
+      <c r="V44" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45">
@@ -3861,22 +3879,22 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="I45" s="1" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>28</v>
@@ -3891,10 +3909,10 @@
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>31</v>
@@ -3914,8 +3932,8 @@
       <c r="U45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V45" s="2" t="s">
-        <v>31</v>
+      <c r="V45" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46">
@@ -3929,23 +3947,23 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="J46" s="2" t="s">
         <v>28</v>
       </c>
@@ -3959,10 +3977,10 @@
         <v>30</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>31</v>
@@ -3997,22 +4015,22 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>28</v>
@@ -4027,10 +4045,10 @@
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>31</v>
@@ -4065,22 +4083,22 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>28</v>
@@ -4095,7 +4113,7 @@
         <v>30</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>31</v>
@@ -4118,8 +4136,8 @@
       <c r="U48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V48" s="2" t="s">
-        <v>31</v>
+      <c r="V48" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49">
@@ -4133,22 +4151,22 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>28</v>
@@ -4163,7 +4181,7 @@
         <v>30</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>31</v>
@@ -4186,8 +4204,8 @@
       <c r="U49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V49" s="2" t="s">
-        <v>31</v>
+      <c r="V49" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="50">
@@ -4201,22 +4219,22 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>28</v>
@@ -4231,10 +4249,10 @@
         <v>30</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>31</v>
@@ -4254,8 +4272,8 @@
       <c r="U50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V50" s="2" t="s">
-        <v>31</v>
+      <c r="V50" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="51">
@@ -4269,22 +4287,22 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>28</v>
@@ -4299,10 +4317,10 @@
         <v>30</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>31</v>
@@ -4322,8 +4340,8 @@
       <c r="U51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V51" s="2" t="s">
-        <v>31</v>
+      <c r="V51" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="52">
@@ -4337,22 +4355,22 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="H52" s="1" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>28</v>
@@ -4367,7 +4385,7 @@
         <v>30</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>31</v>
@@ -4390,8 +4408,8 @@
       <c r="U52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V52" s="2" t="s">
-        <v>31</v>
+      <c r="V52" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="53">
@@ -4405,22 +4423,22 @@
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="I53" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>28</v>
@@ -4435,10 +4453,10 @@
         <v>30</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>31</v>
@@ -4458,8 +4476,8 @@
       <c r="U53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="2" t="s">
-        <v>31</v>
+      <c r="V53" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="54">
@@ -4473,22 +4491,22 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>28</v>
@@ -4503,10 +4521,10 @@
         <v>30</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>31</v>
@@ -4526,8 +4544,8 @@
       <c r="U54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V54" s="2" t="s">
-        <v>31</v>
+      <c r="V54" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55">
@@ -4541,22 +4559,22 @@
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>138</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>28</v>
@@ -4571,10 +4589,10 @@
         <v>30</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>31</v>
@@ -4594,8 +4612,8 @@
       <c r="U55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V55" s="2" t="s">
-        <v>31</v>
+      <c r="V55" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="56">
@@ -4609,22 +4627,22 @@
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>28</v>
@@ -4639,10 +4657,10 @@
         <v>30</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="P56" s="2" t="s">
         <v>31</v>
@@ -4662,8 +4680,8 @@
       <c r="U56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V56" s="2" t="s">
-        <v>31</v>
+      <c r="V56" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="57">
@@ -4677,22 +4695,22 @@
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>28</v>
@@ -4707,7 +4725,7 @@
         <v>30</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>44</v>
@@ -4730,8 +4748,8 @@
       <c r="U57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V57" s="2" t="s">
-        <v>31</v>
+      <c r="V57" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="58">
@@ -4745,22 +4763,22 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>28</v>
@@ -4775,10 +4793,10 @@
         <v>30</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="P58" s="2" t="s">
         <v>31</v>
@@ -4798,8 +4816,8 @@
       <c r="U58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V58" s="2" t="s">
-        <v>31</v>
+      <c r="V58" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="59">
@@ -4813,22 +4831,22 @@
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>28</v>
@@ -4843,10 +4861,10 @@
         <v>30</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="P59" s="2" t="s">
         <v>31</v>
@@ -4866,8 +4884,8 @@
       <c r="U59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V59" s="2" t="s">
-        <v>31</v>
+      <c r="V59" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="60">
@@ -4881,22 +4899,22 @@
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>28</v>
@@ -4911,10 +4929,10 @@
         <v>30</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>31</v>
@@ -4934,8 +4952,8 @@
       <c r="U60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V60" s="2" t="s">
-        <v>31</v>
+      <c r="V60" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="61">
@@ -4949,22 +4967,22 @@
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>28</v>
@@ -4979,10 +4997,10 @@
         <v>30</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="P61" s="2" t="s">
         <v>31</v>
@@ -5002,8 +5020,8 @@
       <c r="U61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V61" s="2" t="s">
-        <v>31</v>
+      <c r="V61" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="62">
@@ -5017,22 +5035,22 @@
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>28</v>
@@ -5047,10 +5065,10 @@
         <v>30</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="P62" s="2" t="s">
         <v>31</v>
@@ -5070,7 +5088,279 @@
       <c r="U62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V62" s="2" t="s">
+      <c r="V62" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S63" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V64" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R65" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S65" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T65" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V65" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S66" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T66" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V66" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-OMN.xlsx
+++ b/Excel-XLSX/UN-OMN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>s4S87I</t>
+    <t>8odZnW</t>
   </si>
   <si>
     <t>2001</t>
@@ -138,6 +138,12 @@
     <t>5</t>
   </si>
   <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>2020</t>
   </si>
   <si>
@@ -150,13 +156,13 @@
     <t>IRN</t>
   </si>
   <si>
-    <t>6</t>
+    <t>7</t>
   </si>
   <si>
     <t>2021</t>
   </si>
   <si>
-    <t>7</t>
+    <t>8</t>
   </si>
   <si>
     <t>92</t>
@@ -168,19 +174,19 @@
     <t>IRQ</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>2007</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>10</t>
+    <t>11</t>
   </si>
   <si>
     <t>2008</t>
@@ -189,7 +195,7 @@
     <t>38</t>
   </si>
   <si>
-    <t>11</t>
+    <t>12</t>
   </si>
   <si>
     <t>2009</t>
@@ -198,7 +204,7 @@
     <t>19</t>
   </si>
   <si>
-    <t>12</t>
+    <t>13</t>
   </si>
   <si>
     <t>2010</t>
@@ -207,7 +213,7 @@
     <t>71</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>2011</t>
@@ -219,7 +225,7 @@
     <t>220</t>
   </si>
   <si>
-    <t>14</t>
+    <t>15</t>
   </si>
   <si>
     <t>2012</t>
@@ -231,9 +237,6 @@
     <t>255</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>2013</t>
   </si>
   <si>
@@ -243,6 +246,9 @@
     <t>250</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>2014</t>
   </si>
   <si>
@@ -255,7 +261,7 @@
     <t>32</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>2015</t>
@@ -270,9 +276,6 @@
     <t>22</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>2016</t>
   </si>
   <si>
@@ -282,6 +285,9 @@
     <t>354</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>2017</t>
   </si>
   <si>
@@ -291,7 +297,7 @@
     <t>387</t>
   </si>
   <si>
-    <t>20</t>
+    <t>21</t>
   </si>
   <si>
     <t>2018</t>
@@ -303,19 +309,19 @@
     <t>254</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>2019</t>
   </si>
   <si>
     <t>295</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>303</t>
   </si>
   <si>
-    <t>23</t>
+    <t>24</t>
   </si>
   <si>
     <t>282</t>
@@ -324,7 +330,7 @@
     <t>459</t>
   </si>
   <si>
-    <t>24</t>
+    <t>25</t>
   </si>
   <si>
     <t>2022</t>
@@ -333,15 +339,12 @@
     <t>410</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
     <t>26</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>147</t>
   </si>
   <si>
@@ -351,9 +354,6 @@
     <t>PAK</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>28</t>
   </si>
   <si>
@@ -375,6 +375,9 @@
     <t>36</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
     <t>177</t>
   </si>
   <si>
@@ -387,9 +390,6 @@
     <t>SDN</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
     <t>39</t>
   </si>
   <si>
@@ -417,6 +417,9 @@
     <t>47</t>
   </si>
   <si>
+    <t>48</t>
+  </si>
+  <si>
     <t>2005</t>
   </si>
   <si>
@@ -429,15 +432,12 @@
     <t>SYR</t>
   </si>
   <si>
-    <t>48</t>
+    <t>49</t>
   </si>
   <si>
     <t>2006</t>
   </si>
   <si>
-    <t>49</t>
-  </si>
-  <si>
     <t>50</t>
   </si>
   <si>
@@ -484,6 +484,9 @@
   </si>
   <si>
     <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
   </si>
 </sst>
 </file>
@@ -868,7 +871,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1008,8 +1011,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>33</v>
+      <c r="V2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -1076,8 +1079,8 @@
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>33</v>
+      <c r="V3" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -1144,8 +1147,8 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>33</v>
+      <c r="V4" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -1212,8 +1215,8 @@
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>33</v>
+      <c r="V5" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -1233,16 +1236,16 @@
         <v>40</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>28</v>
@@ -1257,10 +1260,10 @@
         <v>30</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>31</v>
@@ -1280,8 +1283,8 @@
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>33</v>
+      <c r="V6" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -1295,22 +1298,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>28</v>
@@ -1348,8 +1351,8 @@
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>33</v>
+      <c r="V7" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -1366,19 +1369,19 @@
         <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -1416,8 +1419,8 @@
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>33</v>
+      <c r="V8" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -1431,22 +1434,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>28</v>
@@ -1461,10 +1464,10 @@
         <v>30</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>31</v>
@@ -1484,8 +1487,8 @@
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>33</v>
+      <c r="V9" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -1499,22 +1502,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>28</v>
@@ -1529,10 +1532,10 @@
         <v>30</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>31</v>
@@ -1552,8 +1555,8 @@
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>33</v>
+      <c r="V10" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -1567,41 +1570,41 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="P11" s="2" t="s">
         <v>31</v>
       </c>
@@ -1620,8 +1623,8 @@
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>33</v>
+      <c r="V11" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12">
@@ -1635,41 +1638,41 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="P12" s="2" t="s">
         <v>31</v>
       </c>
@@ -1688,8 +1691,8 @@
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>33</v>
+      <c r="V12" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -1703,40 +1706,40 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="O13" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>31</v>
@@ -1756,8 +1759,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>33</v>
+      <c r="V13" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -1771,43 +1774,43 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="O14" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>31</v>
@@ -1824,8 +1827,8 @@
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>33</v>
+      <c r="V14" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15">
@@ -1839,44 +1842,44 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="O15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="Q15" s="2" t="s">
         <v>31</v>
       </c>
@@ -1892,8 +1895,8 @@
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>33</v>
+      <c r="V15" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -1907,44 +1910,44 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="O16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="Q16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1960,8 +1963,8 @@
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>33</v>
+      <c r="V16" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -1978,41 +1981,41 @@
         <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="Q17" s="2" t="s">
         <v>31</v>
       </c>
@@ -2028,8 +2031,8 @@
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>33</v>
+      <c r="V17" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -2043,44 +2046,44 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="Q18" s="2" t="s">
         <v>31</v>
       </c>
@@ -2096,8 +2099,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>33</v>
+      <c r="V18" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -2111,44 +2114,44 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="Q19" s="2" t="s">
         <v>31</v>
       </c>
@@ -2164,8 +2167,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>33</v>
+      <c r="V19" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -2179,41 +2182,41 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O20" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="P20" s="2" t="s">
         <v>31</v>
       </c>
@@ -2232,8 +2235,8 @@
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>33</v>
+      <c r="V20" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -2247,41 +2250,41 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="O21" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="P21" s="2" t="s">
         <v>31</v>
       </c>
@@ -2300,8 +2303,8 @@
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>33</v>
+      <c r="V21" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22">
@@ -2315,41 +2318,41 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="O22" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="P22" s="2" t="s">
         <v>31</v>
       </c>
@@ -2368,8 +2371,8 @@
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>33</v>
+      <c r="V22" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23">
@@ -2383,22 +2386,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>28</v>
@@ -2413,10 +2416,10 @@
         <v>30</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>31</v>
@@ -2436,8 +2439,8 @@
       <c r="U23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>33</v>
+      <c r="V23" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24">
@@ -2454,19 +2457,19 @@
         <v>99</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>28</v>
@@ -2481,11 +2484,11 @@
         <v>30</v>
       </c>
       <c r="N24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O24" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="O24" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="P24" s="2" t="s">
         <v>31</v>
       </c>
@@ -2504,8 +2507,8 @@
       <c r="U24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>33</v>
+      <c r="V24" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25">
@@ -2519,40 +2522,40 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="O25" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>31</v>
@@ -2587,40 +2590,40 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O26" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>31</v>
@@ -2658,19 +2661,19 @@
         <v>107</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>28</v>
@@ -2685,10 +2688,10 @@
         <v>30</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>31</v>
@@ -2708,8 +2711,8 @@
       <c r="U27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>33</v>
+      <c r="V27" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -2723,22 +2726,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="I28" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>28</v>
@@ -2776,8 +2779,8 @@
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>33</v>
+      <c r="V28" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -2794,19 +2797,19 @@
         <v>112</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>28</v>
@@ -2844,8 +2847,8 @@
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>33</v>
+      <c r="V29" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30">
@@ -2862,19 +2865,19 @@
         <v>113</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>28</v>
@@ -2912,8 +2915,8 @@
       <c r="U30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>33</v>
+      <c r="V30" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -2930,19 +2933,19 @@
         <v>114</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>28</v>
@@ -2957,11 +2960,11 @@
         <v>30</v>
       </c>
       <c r="N31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O31" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="P31" s="2" t="s">
         <v>31</v>
       </c>
@@ -2980,8 +2983,8 @@
       <c r="U31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>33</v>
+      <c r="V31" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32">
@@ -2998,19 +3001,19 @@
         <v>115</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>28</v>
@@ -3048,8 +3051,8 @@
       <c r="U32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>33</v>
+      <c r="V32" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -3063,22 +3066,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>28</v>
@@ -3116,8 +3119,8 @@
       <c r="U33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>33</v>
+      <c r="V33" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="34">
@@ -3134,19 +3137,19 @@
         <v>116</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>28</v>
@@ -3184,8 +3187,8 @@
       <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>33</v>
+      <c r="V34" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="35">
@@ -3202,19 +3205,19 @@
         <v>117</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>28</v>
@@ -3267,22 +3270,22 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>28</v>
@@ -3338,19 +3341,19 @@
         <v>118</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>28</v>
@@ -3365,10 +3368,10 @@
         <v>30</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>31</v>
@@ -3388,8 +3391,8 @@
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>33</v>
+      <c r="V37" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="38">
@@ -3403,23 +3406,23 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>28</v>
       </c>
@@ -3436,7 +3439,7 @@
         <v>31</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>31</v>
@@ -3456,8 +3459,8 @@
       <c r="U38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>33</v>
+      <c r="V38" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="39">
@@ -3471,22 +3474,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>28</v>
@@ -3524,8 +3527,8 @@
       <c r="U39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>33</v>
+      <c r="V39" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="40">
@@ -3542,19 +3545,19 @@
         <v>124</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>28</v>
@@ -3592,8 +3595,8 @@
       <c r="U40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>33</v>
+      <c r="V40" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="41">
@@ -3610,19 +3613,19 @@
         <v>125</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>28</v>
@@ -3660,8 +3663,8 @@
       <c r="U41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>33</v>
+      <c r="V41" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="42">
@@ -3678,19 +3681,19 @@
         <v>126</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>28</v>
@@ -3728,8 +3731,8 @@
       <c r="U42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>33</v>
+      <c r="V42" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="43">
@@ -3746,19 +3749,19 @@
         <v>127</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>28</v>
@@ -3796,8 +3799,8 @@
       <c r="U43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>33</v>
+      <c r="V43" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="44">
@@ -3814,19 +3817,19 @@
         <v>128</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>28</v>
@@ -3864,8 +3867,8 @@
       <c r="U44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>33</v>
+      <c r="V44" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45">
@@ -3882,19 +3885,19 @@
         <v>129</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>28</v>
@@ -3912,7 +3915,7 @@
         <v>31</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>31</v>
@@ -3932,8 +3935,8 @@
       <c r="U45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>33</v>
+      <c r="V45" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="46">
@@ -3950,19 +3953,19 @@
         <v>130</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>28</v>
@@ -3980,7 +3983,7 @@
         <v>31</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>31</v>
@@ -4018,19 +4021,19 @@
         <v>131</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>28</v>
@@ -4086,19 +4089,19 @@
         <v>132</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>28</v>
@@ -4113,10 +4116,10 @@
         <v>30</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>31</v>
@@ -4136,8 +4139,8 @@
       <c r="U48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>33</v>
+      <c r="V48" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="49">
@@ -4151,22 +4154,22 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="I49" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>28</v>
@@ -4204,8 +4207,8 @@
       <c r="U49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>33</v>
+      <c r="V49" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="50">
@@ -4219,22 +4222,22 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>28</v>
@@ -4272,8 +4275,8 @@
       <c r="U50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>33</v>
+      <c r="V50" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="51">
@@ -4290,19 +4293,19 @@
         <v>140</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>28</v>
@@ -4340,8 +4343,8 @@
       <c r="U51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>33</v>
+      <c r="V51" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="52">
@@ -4358,19 +4361,19 @@
         <v>141</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>28</v>
@@ -4408,8 +4411,8 @@
       <c r="U52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>33</v>
+      <c r="V52" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="53">
@@ -4426,19 +4429,19 @@
         <v>142</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>28</v>
@@ -4476,8 +4479,8 @@
       <c r="U53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>33</v>
+      <c r="V53" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="54">
@@ -4494,19 +4497,19 @@
         <v>143</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>28</v>
@@ -4524,7 +4527,7 @@
         <v>46</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>31</v>
@@ -4544,8 +4547,8 @@
       <c r="U54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>33</v>
+      <c r="V54" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="55">
@@ -4562,19 +4565,19 @@
         <v>144</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>28</v>
@@ -4612,8 +4615,8 @@
       <c r="U55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>33</v>
+      <c r="V55" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="56">
@@ -4630,19 +4633,19 @@
         <v>145</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>28</v>
@@ -4680,8 +4683,8 @@
       <c r="U56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>33</v>
+      <c r="V56" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="57">
@@ -4698,19 +4701,19 @@
         <v>146</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>28</v>
@@ -4728,7 +4731,7 @@
         <v>46</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P57" s="2" t="s">
         <v>31</v>
@@ -4748,8 +4751,8 @@
       <c r="U57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>33</v>
+      <c r="V57" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="58">
@@ -4766,19 +4769,19 @@
         <v>147</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>28</v>
@@ -4796,7 +4799,7 @@
         <v>46</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P58" s="2" t="s">
         <v>31</v>
@@ -4816,8 +4819,8 @@
       <c r="U58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>33</v>
+      <c r="V58" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="59">
@@ -4834,19 +4837,19 @@
         <v>148</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>28</v>
@@ -4864,7 +4867,7 @@
         <v>46</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P59" s="2" t="s">
         <v>31</v>
@@ -4884,8 +4887,8 @@
       <c r="U59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>33</v>
+      <c r="V59" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="60">
@@ -4902,19 +4905,19 @@
         <v>149</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>28</v>
@@ -4932,7 +4935,7 @@
         <v>46</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>31</v>
@@ -4952,8 +4955,8 @@
       <c r="U60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>33</v>
+      <c r="V60" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="61">
@@ -4970,19 +4973,19 @@
         <v>150</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>28</v>
@@ -5000,7 +5003,7 @@
         <v>46</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="P61" s="2" t="s">
         <v>31</v>
@@ -5020,8 +5023,8 @@
       <c r="U61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>33</v>
+      <c r="V61" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="62">
@@ -5038,19 +5041,19 @@
         <v>151</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>28</v>
@@ -5065,7 +5068,7 @@
         <v>30</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>31</v>
@@ -5088,8 +5091,8 @@
       <c r="U62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>33</v>
+      <c r="V62" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="63">
@@ -5106,19 +5109,19 @@
         <v>152</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>28</v>
@@ -5133,10 +5136,10 @@
         <v>30</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="P63" s="2" t="s">
         <v>31</v>
@@ -5156,8 +5159,8 @@
       <c r="U63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>33</v>
+      <c r="V63" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="64">
@@ -5174,19 +5177,19 @@
         <v>153</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>28</v>
@@ -5201,10 +5204,10 @@
         <v>30</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="P64" s="2" t="s">
         <v>31</v>
@@ -5224,8 +5227,8 @@
       <c r="U64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>33</v>
+      <c r="V64" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="65">
@@ -5242,19 +5245,19 @@
         <v>154</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>28</v>
@@ -5269,10 +5272,10 @@
         <v>30</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="P65" s="2" t="s">
         <v>31</v>
@@ -5310,57 +5313,125 @@
         <v>155</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G66" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S66" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T66" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V66" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I66" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N66" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O66" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P66" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q66" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R66" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S66" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T66" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U66" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V66" s="2" t="s">
+      <c r="H67" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V67" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-OMN.xlsx
+++ b/Excel-XLSX/UN-OMN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -120,363 +120,363 @@
     <t>-</t>
   </si>
   <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>2002</t>
   </si>
   <si>
-    <t>3</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>2003</t>
   </si>
   <si>
-    <t>4</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>2004</t>
   </si>
   <si>
-    <t>5</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>SUD</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Rep. of)</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
   </si>
   <si>
     <t>2023</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Iran (Islamic Rep. of)</t>
-  </si>
-  <si>
-    <t>IRN</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>IRQ</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>255</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>309</t>
-  </si>
-  <si>
-    <t>354</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>387</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>298</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>295</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>303</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>282</t>
-  </si>
-  <si>
-    <t>459</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>410</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>SUD</t>
-  </si>
-  <si>
-    <t>SDN</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
     <t>63</t>
   </si>
   <si>
@@ -487,6 +487,18 @@
   </si>
   <si>
     <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
   </si>
 </sst>
 </file>
@@ -871,7 +883,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1029,19 +1041,19 @@
         <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
@@ -1059,7 +1071,7 @@
         <v>31</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>31</v>
@@ -1094,10 +1106,10 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>25</v>
@@ -1162,40 +1174,40 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>31</v>
@@ -1230,22 +1242,22 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>28</v>
@@ -1260,10 +1272,10 @@
         <v>30</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>31</v>
@@ -1298,22 +1310,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>28</v>
@@ -1331,7 +1343,7 @@
         <v>31</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>31</v>
@@ -1369,19 +1381,19 @@
         <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -1399,7 +1411,7 @@
         <v>31</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>31</v>
@@ -1434,22 +1446,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>28</v>
@@ -1467,7 +1479,7 @@
         <v>31</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>31</v>
@@ -1502,22 +1514,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>28</v>
@@ -1570,22 +1582,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>28</v>
@@ -1603,7 +1615,7 @@
         <v>31</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>31</v>
@@ -1638,22 +1650,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>28</v>
@@ -1668,10 +1680,10 @@
         <v>30</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>31</v>
@@ -1706,22 +1718,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>28</v>
@@ -1736,10 +1748,10 @@
         <v>30</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>31</v>
@@ -1774,22 +1786,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>28</v>
@@ -1804,10 +1816,10 @@
         <v>30</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>31</v>
@@ -1842,22 +1854,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>28</v>
@@ -1872,13 +1884,13 @@
         <v>30</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>31</v>
@@ -1910,22 +1922,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>28</v>
@@ -1940,13 +1952,13 @@
         <v>30</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>31</v>
@@ -1981,19 +1993,19 @@
         <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>28</v>
@@ -2008,13 +2020,13 @@
         <v>30</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>31</v>
@@ -2046,22 +2058,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>28</v>
@@ -2076,13 +2088,13 @@
         <v>30</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>31</v>
@@ -2114,22 +2126,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>28</v>
@@ -2144,13 +2156,13 @@
         <v>30</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>31</v>
@@ -2182,22 +2194,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>28</v>
@@ -2212,10 +2224,10 @@
         <v>30</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>31</v>
@@ -2250,22 +2262,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>28</v>
@@ -2280,10 +2292,10 @@
         <v>30</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>31</v>
@@ -2318,22 +2330,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>28</v>
@@ -2348,10 +2360,10 @@
         <v>30</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>31</v>
@@ -2386,22 +2398,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>28</v>
@@ -2416,13 +2428,13 @@
         <v>30</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>31</v>
@@ -2454,22 +2466,22 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>28</v>
@@ -2484,10 +2496,10 @@
         <v>30</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>31</v>
@@ -2522,22 +2534,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>28</v>
@@ -2552,10 +2564,10 @@
         <v>30</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>31</v>
@@ -2590,43 +2602,43 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="P26" s="2" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>31</v>
@@ -2658,22 +2670,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>28</v>
@@ -2688,10 +2700,10 @@
         <v>30</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>31</v>
@@ -2726,22 +2738,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>28</v>
@@ -2756,10 +2768,10 @@
         <v>30</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>31</v>
@@ -2794,22 +2806,22 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>28</v>
@@ -2824,13 +2836,13 @@
         <v>30</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>31</v>
@@ -2862,22 +2874,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>28</v>
@@ -2895,7 +2907,7 @@
         <v>31</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>31</v>
@@ -2930,22 +2942,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>28</v>
@@ -2960,10 +2972,10 @@
         <v>30</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>31</v>
@@ -2998,22 +3010,22 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>28</v>
@@ -3028,13 +3040,13 @@
         <v>30</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>31</v>
@@ -3066,22 +3078,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>28</v>
@@ -3096,10 +3108,10 @@
         <v>30</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>31</v>
@@ -3134,22 +3146,22 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>28</v>
@@ -3164,10 +3176,10 @@
         <v>30</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>31</v>
@@ -3202,22 +3214,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>28</v>
@@ -3232,13 +3244,13 @@
         <v>30</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="Q35" s="2" t="s">
         <v>31</v>
@@ -3270,22 +3282,22 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>28</v>
@@ -3300,10 +3312,10 @@
         <v>30</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>31</v>
@@ -3338,22 +3350,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>28</v>
@@ -3368,10 +3380,10 @@
         <v>30</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>31</v>
@@ -3406,22 +3418,22 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>28</v>
@@ -3436,10 +3448,10 @@
         <v>30</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>31</v>
@@ -3474,22 +3486,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="H39" s="1" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>28</v>
@@ -3507,7 +3519,7 @@
         <v>31</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>31</v>
@@ -3542,22 +3554,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>28</v>
@@ -3572,10 +3584,10 @@
         <v>30</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>31</v>
@@ -3610,22 +3622,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>28</v>
@@ -3640,10 +3652,10 @@
         <v>30</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>31</v>
@@ -3678,22 +3690,22 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>28</v>
@@ -3711,7 +3723,7 @@
         <v>31</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>31</v>
@@ -3746,22 +3758,22 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>28</v>
@@ -3776,10 +3788,10 @@
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P43" s="2" t="s">
         <v>31</v>
@@ -3814,40 +3826,40 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="F44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="O44" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>31</v>
@@ -3882,22 +3894,22 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>28</v>
@@ -3912,10 +3924,10 @@
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>31</v>
@@ -3950,22 +3962,22 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>28</v>
@@ -3980,10 +3992,10 @@
         <v>30</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>31</v>
@@ -4018,40 +4030,40 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O47" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>31</v>
@@ -4086,22 +4098,22 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>28</v>
@@ -4116,10 +4128,10 @@
         <v>30</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>31</v>
@@ -4154,22 +4166,22 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>28</v>
@@ -4184,7 +4196,7 @@
         <v>30</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>31</v>
@@ -4222,22 +4234,22 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>28</v>
@@ -4252,10 +4264,10 @@
         <v>30</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>31</v>
@@ -4290,22 +4302,22 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>28</v>
@@ -4320,10 +4332,10 @@
         <v>30</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>31</v>
@@ -4358,22 +4370,22 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>28</v>
@@ -4388,7 +4400,7 @@
         <v>30</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>31</v>
@@ -4426,22 +4438,22 @@
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>28</v>
@@ -4456,10 +4468,10 @@
         <v>30</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>31</v>
@@ -4494,22 +4506,22 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>28</v>
@@ -4524,10 +4536,10 @@
         <v>30</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>31</v>
@@ -4562,22 +4574,22 @@
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>28</v>
@@ -4592,10 +4604,10 @@
         <v>30</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>31</v>
@@ -4630,22 +4642,22 @@
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>28</v>
@@ -4660,10 +4672,10 @@
         <v>30</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="P56" s="2" t="s">
         <v>31</v>
@@ -4698,22 +4710,22 @@
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>28</v>
@@ -4728,10 +4740,10 @@
         <v>30</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P57" s="2" t="s">
         <v>31</v>
@@ -4766,22 +4778,22 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>28</v>
@@ -4796,10 +4808,10 @@
         <v>30</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="P58" s="2" t="s">
         <v>31</v>
@@ -4834,22 +4846,22 @@
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>28</v>
@@ -4864,10 +4876,10 @@
         <v>30</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="P59" s="2" t="s">
         <v>31</v>
@@ -4902,22 +4914,22 @@
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>28</v>
@@ -4932,10 +4944,10 @@
         <v>30</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>31</v>
@@ -4970,22 +4982,22 @@
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>28</v>
@@ -5000,10 +5012,10 @@
         <v>30</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="P61" s="2" t="s">
         <v>31</v>
@@ -5038,22 +5050,22 @@
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>28</v>
@@ -5068,10 +5080,10 @@
         <v>30</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P62" s="2" t="s">
         <v>31</v>
@@ -5106,22 +5118,22 @@
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>28</v>
@@ -5136,7 +5148,7 @@
         <v>30</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>31</v>
@@ -5177,19 +5189,19 @@
         <v>153</v>
       </c>
       <c r="E64" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="H64" s="1" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>28</v>
@@ -5204,10 +5216,10 @@
         <v>30</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="P64" s="2" t="s">
         <v>31</v>
@@ -5245,19 +5257,19 @@
         <v>154</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>28</v>
@@ -5272,10 +5284,10 @@
         <v>30</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="P65" s="2" t="s">
         <v>31</v>
@@ -5313,19 +5325,19 @@
         <v>155</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>28</v>
@@ -5340,10 +5352,10 @@
         <v>30</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="P66" s="2" t="s">
         <v>31</v>
@@ -5381,19 +5393,19 @@
         <v>156</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>28</v>
@@ -5408,30 +5420,370 @@
         <v>30</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O67" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V67" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S68" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V68" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="P67" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q67" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R67" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S67" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T67" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U67" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V67" s="2" t="s">
+      <c r="G69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S69" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T69" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V69" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S70" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T70" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V70" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R71" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S71" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T71" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V71" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S72" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T72" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V72" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-OMN.xlsx
+++ b/Excel-XLSX/UN-OMN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>8odZnW</t>
+    <t>ppU7H5</t>
   </si>
   <si>
     <t>2001</t>
@@ -496,6 +496,12 @@
   </si>
   <si>
     <t>68</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>409</t>
   </si>
   <si>
     <t>69</t>
@@ -5556,10 +5562,10 @@
         <v>30</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="P69" s="2" t="s">
         <v>31</v>
@@ -5594,7 +5600,7 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>158</v>
